--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/NEVADA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/NEVADA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1394"/>
+  <dimension ref="A1:D1388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -537,7 +537,7 @@
         <v>161</v>
       </c>
       <c r="D13">
-        <v>0.009721048182586645</v>
+        <v>0.009721048182586643</v>
       </c>
     </row>
     <row r="14">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C39">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C42">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C64">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C107">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C109">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C123">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C124">
@@ -2089,7 +2089,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C131">
@@ -2250,7 +2250,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C143">
@@ -2450,7 +2450,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C158">
@@ -2476,7 +2476,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2533,7 +2533,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C164">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C179">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C192">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C196">
@@ -3045,7 +3045,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C203">
@@ -3058,7 +3058,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C204">
@@ -3071,7 +3071,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C205">
@@ -3188,12 +3188,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C214">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C218">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C224">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C230">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C234">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C239">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C244">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C254">
@@ -3817,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C262">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C264">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C273">
@@ -4090,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C283">
@@ -4155,7 +4155,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C288">
@@ -4168,7 +4168,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C289">
@@ -4181,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C290">
@@ -4329,7 +4329,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C301">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C302">
@@ -4355,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C303">
@@ -4433,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C309">
@@ -4485,7 +4485,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C313">
@@ -4576,7 +4576,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C320">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C324">
@@ -4654,7 +4654,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C326">
@@ -4680,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C328">
@@ -4706,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C330">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C334">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C339">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C341">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C342">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C347">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C348">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C351">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C353">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C354">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C359">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C360">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C364">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C365">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C371">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C372">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C374">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C375">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C377">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C380">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C393">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C395">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C397">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C399">
@@ -5647,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C402">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C415">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C416">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C421">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C426">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C429">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C435">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C436">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C437">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C438">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C440">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C441">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C443">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C446">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C451">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C453">
@@ -6419,7 +6419,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C461">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C462">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C465">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C466">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C471">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C472">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C477">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C480">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C482">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C488">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C495">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C496">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C504">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C510">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C511">
@@ -7087,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C512">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C516">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C521">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C522">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C529">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C534">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C536">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C537">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C540">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C542">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C543">
@@ -7503,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C544">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C548">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C554">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C555">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C558">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C559">
@@ -7854,7 +7854,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C571">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C572">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C573">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C574">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C579">
@@ -7971,7 +7971,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C580">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C583">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C584">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C585">
@@ -8366,7 +8366,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C610">
@@ -8392,7 +8392,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C612">
@@ -8776,7 +8776,7 @@
         <v>150</v>
       </c>
       <c r="D641">
-        <v>0.009056877188745321</v>
+        <v>0.009056877188745319</v>
       </c>
     </row>
     <row r="642">
@@ -9237,7 +9237,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C677">
@@ -9580,7 +9580,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C703">
@@ -9671,7 +9671,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C710">
@@ -9723,7 +9723,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C714">
@@ -9788,7 +9788,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C719">
@@ -9879,7 +9879,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C726">
@@ -9936,7 +9936,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C730">
@@ -9949,7 +9949,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C731">
@@ -10001,7 +10001,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C735">
@@ -10092,7 +10092,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C742">
@@ -10253,7 +10253,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C754">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C759">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C760">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C763">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C766">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C767">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C768">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C769">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C770">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C771">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C774">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C779">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C780">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C783">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C784">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C785">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C786">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C787">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C788">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C795">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C812">
@@ -11103,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C819">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C839">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C855">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C856">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C860">
@@ -11727,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C867">
@@ -12234,7 +12234,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C906">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C907">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C908">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C909">
@@ -12286,7 +12286,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C910">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C911">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C913">
@@ -12338,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C914">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C916">
@@ -12390,7 +12390,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C918">
@@ -12403,7 +12403,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C919">
@@ -12694,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C941">
@@ -12850,7 +12850,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C953">
@@ -12889,7 +12889,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C956">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C965">
@@ -13019,7 +13019,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C966">
@@ -13071,7 +13071,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C970">
@@ -13110,7 +13110,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C973">
@@ -13188,7 +13188,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C979">
@@ -13305,7 +13305,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C988">
@@ -13513,7 +13513,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1004">
@@ -13539,7 +13539,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1006">
@@ -13552,7 +13552,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1007">
@@ -13695,7 +13695,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1018">
@@ -13708,7 +13708,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1019">
@@ -13786,7 +13786,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1025">
@@ -13812,7 +13812,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1027">
@@ -13864,7 +13864,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1031">
@@ -14033,7 +14033,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1044">
@@ -14085,7 +14085,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1048">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1058">
@@ -14246,7 +14246,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1060">
@@ -14311,7 +14311,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1065">
@@ -14337,7 +14337,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1067">
@@ -14376,7 +14376,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1070">
@@ -14555,7 +14555,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1083">
@@ -14646,7 +14646,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1090">
@@ -14724,7 +14724,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1096">
@@ -14750,7 +14750,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1098">
@@ -14802,7 +14802,7 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1102">
@@ -14815,7 +14815,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1103">
@@ -14828,7 +14828,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1104">
@@ -15410,7 +15410,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1148">
@@ -15662,7 +15662,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1167">
@@ -15984,7 +15984,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1191">
@@ -16023,7 +16023,7 @@
     <row r="1194">
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1194">
@@ -16049,7 +16049,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1196">
@@ -16075,7 +16075,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1198">
@@ -16249,7 +16249,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1211">
@@ -16379,7 +16379,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1221">
@@ -16561,7 +16561,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1235">
@@ -16704,7 +16704,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1246">
@@ -16821,7 +16821,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1255">
@@ -16873,7 +16873,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1259">
@@ -16925,7 +16925,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1263">
@@ -16951,7 +16951,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1265">
@@ -17003,7 +17003,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1269">
@@ -17094,7 +17094,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1276">
@@ -17133,7 +17133,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1279">
@@ -17185,7 +17185,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1283">
@@ -17289,7 +17289,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1291">
@@ -17315,7 +17315,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1293">
@@ -17354,7 +17354,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1296">
@@ -17962,7 +17962,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1342">
@@ -17988,7 +17988,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1344">
@@ -18014,7 +18014,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1346">
@@ -18209,7 +18209,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1361">
@@ -18274,7 +18274,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1366">
@@ -18287,7 +18287,7 @@
     <row r="1367">
       <c r="B1367" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1367">
@@ -18430,7 +18430,7 @@
     <row r="1378">
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1378">
@@ -18443,7 +18443,7 @@
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1379">
@@ -18456,7 +18456,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1380">
@@ -18495,7 +18495,7 @@
     <row r="1383">
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1383">
@@ -18568,41 +18568,6 @@
       </c>
       <c r="D1388">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1390">
-      <c r="A1390" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1391">
-      <c r="A1391" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1392">
-      <c r="A1392" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
